--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Tnfrsf10b</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H2">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I2">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J2">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.5172257189742</v>
+        <v>13.08067733333333</v>
       </c>
       <c r="N2">
-        <v>11.5172257189742</v>
+        <v>39.24203199999999</v>
       </c>
       <c r="O2">
-        <v>0.6868219027751622</v>
+        <v>0.6621446251628267</v>
       </c>
       <c r="P2">
-        <v>0.6868219027751622</v>
+        <v>0.6859835984989974</v>
       </c>
       <c r="Q2">
-        <v>4.90234573720477</v>
+        <v>0.9297745448533333</v>
       </c>
       <c r="R2">
-        <v>4.90234573720477</v>
+        <v>8.36797090368</v>
       </c>
       <c r="S2">
-        <v>0.612375141637911</v>
+        <v>0.06368562876680506</v>
       </c>
       <c r="T2">
-        <v>0.612375141637911</v>
+        <v>0.06631105750343218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H3">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I3">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J3">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.53847486906217</v>
+        <v>3.909188</v>
       </c>
       <c r="N3">
-        <v>3.53847486906217</v>
+        <v>11.727564</v>
       </c>
       <c r="O3">
-        <v>0.2110145361211025</v>
+        <v>0.1978833172770733</v>
       </c>
       <c r="P3">
-        <v>0.2110145361211025</v>
+        <v>0.2050076447200108</v>
       </c>
       <c r="Q3">
-        <v>1.506163690269166</v>
+        <v>0.27786508304</v>
       </c>
       <c r="R3">
-        <v>1.506163690269166</v>
+        <v>2.50078574736</v>
       </c>
       <c r="S3">
-        <v>0.1881420145785882</v>
+        <v>0.01903258442995377</v>
       </c>
       <c r="T3">
-        <v>0.1881420145785882</v>
+        <v>0.01981719934327512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H4">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I4">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J4">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.281986221992543</v>
+        <v>0.4136356666666667</v>
       </c>
       <c r="N4">
-        <v>0.281986221992543</v>
+        <v>1.240907</v>
       </c>
       <c r="O4">
-        <v>0.01681605607730918</v>
+        <v>0.02093826080099338</v>
       </c>
       <c r="P4">
-        <v>0.01681605607730918</v>
+        <v>0.02169209406033295</v>
       </c>
       <c r="Q4">
-        <v>0.1200283807113529</v>
+        <v>0.02940122318666667</v>
       </c>
       <c r="R4">
-        <v>0.1200283807113529</v>
+        <v>0.26461100868</v>
       </c>
       <c r="S4">
-        <v>0.0149933114836967</v>
+        <v>0.002013859591575935</v>
       </c>
       <c r="T4">
-        <v>0.0149933114836967</v>
+        <v>0.002096880595617768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -720,111 +723,111 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H5">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I5">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J5">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43118103247563</v>
+        <v>0.2919639999999999</v>
       </c>
       <c r="N5">
-        <v>1.43118103247563</v>
+        <v>0.8758919999999999</v>
       </c>
       <c r="O5">
-        <v>0.085347505026426</v>
+        <v>0.01477923416460999</v>
       </c>
       <c r="P5">
-        <v>0.085347505026426</v>
+        <v>0.01531132603063174</v>
       </c>
       <c r="Q5">
-        <v>0.6091870043118448</v>
+        <v>0.02075280112</v>
       </c>
       <c r="R5">
-        <v>0.6091870043118448</v>
+        <v>0.18677521008</v>
       </c>
       <c r="S5">
-        <v>0.07609642364027708</v>
+        <v>0.001421479212692513</v>
       </c>
       <c r="T5">
-        <v>0.07609642364027708</v>
+        <v>0.001480079440809697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04335008402994</v>
+        <v>0.07108</v>
       </c>
       <c r="H6">
-        <v>0.04335008402994</v>
+        <v>0.21324</v>
       </c>
       <c r="I6">
-        <v>0.09080448549669824</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J6">
-        <v>0.09080448549669824</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.5172257189742</v>
+        <v>2.0595505</v>
       </c>
       <c r="N6">
-        <v>11.5172257189742</v>
+        <v>4.119101</v>
       </c>
       <c r="O6">
-        <v>0.6868219027751622</v>
+        <v>0.1042545625944965</v>
       </c>
       <c r="P6">
-        <v>0.6868219027751622</v>
+        <v>0.07200533669002712</v>
       </c>
       <c r="Q6">
-        <v>0.4992727027093177</v>
+        <v>0.14639284954</v>
       </c>
       <c r="R6">
-        <v>0.4992727027093177</v>
+        <v>0.87835709724</v>
       </c>
       <c r="S6">
-        <v>0.06236650950936191</v>
+        <v>0.01002729180049757</v>
       </c>
       <c r="T6">
-        <v>0.06236650950936191</v>
+        <v>0.006960443416218737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J7">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.53847486906217</v>
+        <v>13.08067733333333</v>
       </c>
       <c r="N7">
-        <v>3.53847486906217</v>
+        <v>39.24203199999999</v>
       </c>
       <c r="O7">
-        <v>0.2110145361211025</v>
+        <v>0.6621446251628267</v>
       </c>
       <c r="P7">
-        <v>0.2110145361211025</v>
+        <v>0.6859835984989974</v>
       </c>
       <c r="Q7">
-        <v>0.153393182911676</v>
+        <v>7.815543378312888</v>
       </c>
       <c r="R7">
-        <v>0.153393182911676</v>
+        <v>70.33989040481599</v>
       </c>
       <c r="S7">
-        <v>0.01916106638480116</v>
+        <v>0.5353317069791488</v>
       </c>
       <c r="T7">
-        <v>0.01916106638480116</v>
+        <v>0.5574006615352398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H8">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I8">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J8">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.281986221992543</v>
+        <v>3.909188</v>
       </c>
       <c r="N8">
-        <v>0.281986221992543</v>
+        <v>11.727564</v>
       </c>
       <c r="O8">
-        <v>0.01681605607730918</v>
+        <v>0.1978833172770733</v>
       </c>
       <c r="P8">
-        <v>0.01681605607730918</v>
+        <v>0.2050076447200108</v>
       </c>
       <c r="Q8">
-        <v>0.01222412641866205</v>
+        <v>2.335691616681333</v>
       </c>
       <c r="R8">
-        <v>0.01222412641866205</v>
+        <v>21.021224550132</v>
       </c>
       <c r="S8">
-        <v>0.001526973320183685</v>
+        <v>0.15998500930908</v>
       </c>
       <c r="T8">
-        <v>0.001526973320183685</v>
+        <v>0.1665803629077328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H9">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I9">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J9">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.43118103247563</v>
+        <v>0.4136356666666667</v>
       </c>
       <c r="N9">
-        <v>1.43118103247563</v>
+        <v>1.240907</v>
       </c>
       <c r="O9">
-        <v>0.085347505026426</v>
+        <v>0.02093826080099338</v>
       </c>
       <c r="P9">
-        <v>0.085347505026426</v>
+        <v>0.02169209406033295</v>
       </c>
       <c r="Q9">
-        <v>0.06204181801987485</v>
+        <v>0.2471422093267778</v>
       </c>
       <c r="R9">
-        <v>0.06204181801987485</v>
+        <v>2.224279883941</v>
       </c>
       <c r="S9">
-        <v>0.007749936282351481</v>
+        <v>0.01692819736022779</v>
       </c>
       <c r="T9">
-        <v>0.007749936282351481</v>
+        <v>0.01762605929029643</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.008396813085927299</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H10">
-        <v>0.008396813085927299</v>
+        <v>1.792463</v>
       </c>
       <c r="I10">
-        <v>0.01758862316282866</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J10">
-        <v>0.01758862316282866</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.5172257189742</v>
+        <v>0.2919639999999999</v>
       </c>
       <c r="N10">
-        <v>11.5172257189742</v>
+        <v>0.8758919999999999</v>
       </c>
       <c r="O10">
-        <v>0.6868219027751622</v>
+        <v>0.01477923416460999</v>
       </c>
       <c r="P10">
-        <v>0.6868219027751622</v>
+        <v>0.01531132603063174</v>
       </c>
       <c r="Q10">
-        <v>0.09670799163066102</v>
+        <v>0.1744448891106666</v>
       </c>
       <c r="R10">
-        <v>0.09670799163066102</v>
+        <v>1.570004001996</v>
       </c>
       <c r="S10">
-        <v>0.01208025162788927</v>
+        <v>0.01194873801360186</v>
       </c>
       <c r="T10">
-        <v>0.01208025162788927</v>
+        <v>0.01244132261635749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.008396813085927299</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H11">
-        <v>0.008396813085927299</v>
+        <v>1.792463</v>
       </c>
       <c r="I11">
-        <v>0.01758862316282866</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J11">
-        <v>0.01758862316282866</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.53847486906217</v>
+        <v>2.0595505</v>
       </c>
       <c r="N11">
-        <v>3.53847486906217</v>
+        <v>4.119101</v>
       </c>
       <c r="O11">
-        <v>0.2110145361211025</v>
+        <v>0.1042545625944965</v>
       </c>
       <c r="P11">
-        <v>0.2110145361211025</v>
+        <v>0.07200533669002712</v>
       </c>
       <c r="Q11">
-        <v>0.02971191208476612</v>
+        <v>1.230556022627167</v>
       </c>
       <c r="R11">
-        <v>0.02971191208476612</v>
+        <v>7.383336135762999</v>
       </c>
       <c r="S11">
-        <v>0.00371145515771317</v>
+        <v>0.08428788943254206</v>
       </c>
       <c r="T11">
-        <v>0.00371145515771317</v>
+        <v>0.05850842847104522</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.008396813085927299</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="H12">
-        <v>0.008396813085927299</v>
+        <v>0.178012</v>
       </c>
       <c r="I12">
-        <v>0.01758862316282866</v>
+        <v>0.08029142921964473</v>
       </c>
       <c r="J12">
-        <v>0.01758862316282866</v>
+        <v>0.08069615232230591</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.281986221992543</v>
+        <v>13.08067733333333</v>
       </c>
       <c r="N12">
-        <v>0.281986221992543</v>
+        <v>39.24203199999999</v>
       </c>
       <c r="O12">
-        <v>0.01681605607730918</v>
+        <v>0.6621446251628267</v>
       </c>
       <c r="P12">
-        <v>0.01681605607730918</v>
+        <v>0.6859835984989974</v>
       </c>
       <c r="Q12">
-        <v>0.002367785598878185</v>
+        <v>0.7761725111537777</v>
       </c>
       <c r="R12">
-        <v>0.002367785598878185</v>
+        <v>6.985552600384</v>
       </c>
       <c r="S12">
-        <v>0.0002957712734287859</v>
+        <v>0.05316453830442929</v>
       </c>
       <c r="T12">
-        <v>0.0002957712734287859</v>
+        <v>0.05535623695507863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.178012</v>
+      </c>
+      <c r="I13">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J13">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.909188</v>
+      </c>
+      <c r="N13">
+        <v>11.727564</v>
+      </c>
+      <c r="O13">
+        <v>0.1978833172770733</v>
+      </c>
+      <c r="P13">
+        <v>0.2050076447200108</v>
+      </c>
+      <c r="Q13">
+        <v>0.2319607914186667</v>
+      </c>
+      <c r="R13">
+        <v>2.087647122768</v>
+      </c>
+      <c r="S13">
+        <v>0.01588833436290063</v>
+      </c>
+      <c r="T13">
+        <v>0.01654332812556317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.178012</v>
+      </c>
+      <c r="I14">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J14">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4136356666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.240907</v>
+      </c>
+      <c r="O14">
+        <v>0.02093826080099338</v>
+      </c>
+      <c r="P14">
+        <v>0.02169209406033295</v>
+      </c>
+      <c r="Q14">
+        <v>0.02454403743155556</v>
+      </c>
+      <c r="R14">
+        <v>0.220896336884</v>
+      </c>
+      <c r="S14">
+        <v>0.001681162885085422</v>
+      </c>
+      <c r="T14">
+        <v>0.001750468526482415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.178012</v>
+      </c>
+      <c r="I15">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J15">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2919639999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.8758919999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.01477923416460999</v>
+      </c>
+      <c r="P15">
+        <v>0.01531132603063174</v>
+      </c>
+      <c r="Q15">
+        <v>0.01732436518933333</v>
+      </c>
+      <c r="R15">
+        <v>0.155919286704</v>
+      </c>
+      <c r="S15">
+        <v>0.001186645833848338</v>
+      </c>
+      <c r="T15">
+        <v>0.001235565097624346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.178012</v>
+      </c>
+      <c r="I16">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J16">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.0595505</v>
+      </c>
+      <c r="N16">
+        <v>4.119101</v>
+      </c>
+      <c r="O16">
+        <v>0.1042545625944965</v>
+      </c>
+      <c r="P16">
+        <v>0.07200533669002712</v>
+      </c>
+      <c r="Q16">
+        <v>0.1222082345353333</v>
+      </c>
+      <c r="R16">
+        <v>0.7332494072119999</v>
+      </c>
+      <c r="S16">
+        <v>0.008370747833381041</v>
+      </c>
+      <c r="T16">
+        <v>0.005810553617557351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.0111195</v>
+      </c>
+      <c r="H17">
+        <v>0.022239</v>
+      </c>
+      <c r="I17">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J17">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.08067733333333</v>
+      </c>
+      <c r="N17">
+        <v>39.24203199999999</v>
+      </c>
+      <c r="O17">
+        <v>0.6621446251628267</v>
+      </c>
+      <c r="P17">
+        <v>0.6859835984989974</v>
+      </c>
+      <c r="Q17">
+        <v>0.145450591608</v>
+      </c>
+      <c r="R17">
+        <v>0.8727035496479998</v>
+      </c>
+      <c r="S17">
+        <v>0.009962751112443567</v>
+      </c>
+      <c r="T17">
+        <v>0.006915642505246801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.0111195</v>
+      </c>
+      <c r="H18">
+        <v>0.022239</v>
+      </c>
+      <c r="I18">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J18">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.909188</v>
+      </c>
+      <c r="N18">
+        <v>11.727564</v>
+      </c>
+      <c r="O18">
+        <v>0.1978833172770733</v>
+      </c>
+      <c r="P18">
+        <v>0.2050076447200108</v>
+      </c>
+      <c r="Q18">
+        <v>0.043468215966</v>
+      </c>
+      <c r="R18">
+        <v>0.260809295796</v>
+      </c>
+      <c r="S18">
+        <v>0.00297738917513887</v>
+      </c>
+      <c r="T18">
+        <v>0.002066754343439764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.0111195</v>
+      </c>
+      <c r="H19">
+        <v>0.022239</v>
+      </c>
+      <c r="I19">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J19">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.4136356666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.240907</v>
+      </c>
+      <c r="O19">
+        <v>0.02093826080099338</v>
+      </c>
+      <c r="P19">
+        <v>0.02169209406033295</v>
+      </c>
+      <c r="Q19">
+        <v>0.004599421795499999</v>
+      </c>
+      <c r="R19">
+        <v>0.027596530773</v>
+      </c>
+      <c r="S19">
+        <v>0.0003150409641042291</v>
+      </c>
+      <c r="T19">
+        <v>0.0002186856479363325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="H13">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="I13">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="J13">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.43118103247563</v>
-      </c>
-      <c r="N13">
-        <v>1.43118103247563</v>
-      </c>
-      <c r="O13">
-        <v>0.085347505026426</v>
-      </c>
-      <c r="P13">
-        <v>0.085347505026426</v>
-      </c>
-      <c r="Q13">
-        <v>0.01201735962182231</v>
-      </c>
-      <c r="R13">
-        <v>0.01201735962182231</v>
-      </c>
-      <c r="S13">
-        <v>0.001501145103797432</v>
-      </c>
-      <c r="T13">
-        <v>0.001501145103797432</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.0111195</v>
+      </c>
+      <c r="H20">
+        <v>0.022239</v>
+      </c>
+      <c r="I20">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J20">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2919639999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.8758919999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.01477923416460999</v>
+      </c>
+      <c r="P20">
+        <v>0.01531132603063174</v>
+      </c>
+      <c r="Q20">
+        <v>0.003246493697999999</v>
+      </c>
+      <c r="R20">
+        <v>0.019478962188</v>
+      </c>
+      <c r="S20">
+        <v>0.0002223711044672819</v>
+      </c>
+      <c r="T20">
+        <v>0.0001543588758402121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.0111195</v>
+      </c>
+      <c r="H21">
+        <v>0.022239</v>
+      </c>
+      <c r="I21">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J21">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.0595505</v>
+      </c>
+      <c r="N21">
+        <v>4.119101</v>
+      </c>
+      <c r="O21">
+        <v>0.1042545625944965</v>
+      </c>
+      <c r="P21">
+        <v>0.07200533669002712</v>
+      </c>
+      <c r="Q21">
+        <v>0.02290117178475</v>
+      </c>
+      <c r="R21">
+        <v>0.09160468713899998</v>
+      </c>
+      <c r="S21">
+        <v>0.001568633528075868</v>
+      </c>
+      <c r="T21">
+        <v>0.0007259111852058171</v>
       </c>
     </row>
   </sheetData>
